--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_pl.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279EB656-5F3C-4644-99DF-9A63D418CE42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,21 +25,20 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -44,23 +48,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Pole wymagane. Numer musi być unikalny - nie może być dwóch produktów o takim samym numerze.</t>
+            <family val="2"/>
+          </rPr>
+          <t>Pole wymagane. Numer musi być unikalny - nie może być dwóch produktów o takim samym numerze.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -70,23 +72,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Pole wymagane</t>
+            <family val="2"/>
+          </rPr>
+          <t>Pole wymagane</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -96,27 +96,61 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Dana opcjonalna. Jeśli chcesz przypisz produkt do jednego z możliwych typów:
-- surowiec
-- półprodukt
-- finalny produkt
-- odpad</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- surowiec
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- półprodukt
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- finalny produkt
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>- odpad</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -126,23 +160,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana wymagana. Użyj wartości jednostki zdefiniowanej w słowniku</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana wymagana. Użyj wartości jednostki zdefiniowanej w słowniku</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -152,23 +184,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Jeśli chcesz podać EANy dla produktów, pamiętaj, że dany kod może być przypisany tylko do 1 produktu</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Jeśli chcesz podać EANy dla produktów, pamiętaj, że dany kod może być przypisany tylko do 1 produktu</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -178,23 +208,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Jeśli chcesz przypisz produkt do kategorii, wpisując wartość ze słownika kategorii</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Jeśli chcesz przypisz produkt do kategorii, wpisując wartość ze słownika kategorii</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -204,23 +232,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -230,23 +256,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Jeśli chcesz określić producenta produktu użyj numeru klienta zdefiniowanego w qcadoo</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Jeśli chcesz określić producenta produktu użyj numeru klienta zdefiniowanego w qcadoo</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -256,23 +280,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjolana. Jeśli chcesz przypisać produkt do asortymentu, użyj nazwy asortymentu zdefiniowanego w qcadoo</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjolana. Jeśli chcesz przypisać produkt do asortymentu, użyj nazwy asortymentu zdefiniowanego w qcadoo</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -282,23 +304,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Możesz przypisać produkt do rodziny - w tym celu zdefiniuj w qcadoo produkty - rodziny i użyj w pliku importu ich numeru</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Możesz przypisać produkt do rodziny - w tym celu zdefiniuj w qcadoo produkty - rodziny i użyj w pliku importu ich numeru</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -308,23 +328,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -334,23 +352,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -360,10 +376,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
         </r>
       </text>
     </comment>
@@ -374,53 +389,50 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t xml:space="preserve">Numer</t>
+    <t>Numer</t>
   </si>
   <si>
-    <t xml:space="preserve">Nazwa</t>
+    <t>Nazwa</t>
   </si>
   <si>
-    <t xml:space="preserve">Globalny typ materiału</t>
+    <t>Globalny typ materiału</t>
   </si>
   <si>
-    <t xml:space="preserve">jednostka podstawowa</t>
+    <t>jednostka podstawowa</t>
   </si>
   <si>
-    <t xml:space="preserve">Kod EAN</t>
+    <t>Kod EAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Kategoria</t>
+    <t>Kategoria</t>
   </si>
   <si>
-    <t xml:space="preserve">Opis</t>
+    <t>Opis</t>
   </si>
   <si>
-    <t xml:space="preserve">Producent</t>
+    <t>Producent</t>
   </si>
   <si>
-    <t xml:space="preserve">Asortyment</t>
+    <t>Asortyment</t>
   </si>
   <si>
-    <t xml:space="preserve">Należy do rodziny</t>
+    <t>Należy do rodziny</t>
   </si>
   <si>
-    <t xml:space="preserve">Koszt nominalny</t>
+    <t>Koszt nominalny</t>
   </si>
   <si>
-    <t xml:space="preserve">Cena ostatniego przychodu</t>
+    <t>Cena ostatniego przychodu</t>
   </si>
   <si>
-    <t xml:space="preserve">Cena średnio ważona</t>
+    <t>Cena średnio ważona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -429,25 +441,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -455,19 +449,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -479,94 +471,1001 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.7674418604651"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.6883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.8279069767442"/>
+    <col min="1" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="13" width="20.83203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,13 +1507,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_pl.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monikajedrysiak/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279EB656-5F3C-4644-99DF-9A63D418CE42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,12 +30,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
+    <author>qcadoo MES</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,6 +385,78 @@
             <family val="2"/>
           </rPr>
           <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna. Ważność wyrażana jest w miesiacach. Podana wartość musi być liczbą dodatnią całkowitą.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna.  Dostępne wartości: 'tak' lub 'nie'. Jeśli komórka będzie pusta lub wartość będzie inna niż dostępne, to ewidencja partii nie będzie wymagana.</t>
         </r>
       </text>
     </comment>
@@ -387,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Numer</t>
   </si>
@@ -427,12 +505,21 @@
   <si>
     <t>Cena średnio ważona</t>
   </si>
+  <si>
+    <t>Rozmiar</t>
+  </si>
+  <si>
+    <t>Ważność</t>
+  </si>
+  <si>
+    <t>Ewidencja partii</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -458,6 +545,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -491,12 +591,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Norm." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,7 +632,7 @@
         <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -580,7 +681,7 @@
         <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -629,7 +730,7 @@
         <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -678,7 +779,7 @@
         <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -727,7 +828,7 @@
         <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -776,7 +877,7 @@
         <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -825,7 +926,7 @@
         <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -874,7 +975,7 @@
         <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -923,7 +1024,7 @@
         <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -972,7 +1073,7 @@
         <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1021,7 +1122,7 @@
         <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,7 +1171,7 @@
         <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,7 +1220,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,11 +1550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1462,10 +1563,10 @@
     <col min="3" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="10" width="16.83203125" customWidth="1"/>
     <col min="11" max="13" width="20.83203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.83203125"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1505,6 +1606,15 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_pl.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monikajedrysiak/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09E460C-43AC-CE4E-96B2-72A3460C7C2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="9740" windowWidth="33600" windowHeight="9400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,13 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
-    <author>qcadoo MES</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -114,113 +114,161 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">- surowiec
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- półprodukt
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- finalny produkt
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>- odpad</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">qcadoo MES:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dana wymagana. Użyj wartości jednostki zdefiniowanej w słowniku</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">qcadoo MES:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dana opcjonalna. Jeśli chcesz podać EANy dla produktów, pamiętaj, że dany kod może być przypisany tylko do 1 produktu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">qcadoo MES:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dana opcjonalna. Jeśli chcesz przypisz produkt do kategorii, wpisując wartość ze słownika kategorii</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
+          <t xml:space="preserve">- surowiec,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- półprodukt,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- finalny produkt,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>- odpad.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dana wymagana. Użyj wartości jednostki zdefiniowanej w słowniku.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5830D5F2-87E2-844B-8797-8AC985758524}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Wskaż jednostkę, z listy zdefiniowanej w słowniku, w której chcesz dodatkowo prowadzić ewidencję magazynową. Podana jednostka musi być różna niż jednostka podstawowa. Pamiętaj o podaniu w następnej kolumnie przelicznika między jednostkami.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3B4D0B4C-397E-C54A-802C-74C233498F1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dana wymagana, gdy produkt ma jednostkę dodatkową. Podaj ile jednostek dodatkowych mieści się w jednej jednostce podstawowej produktu. Przykład: jednostka podstawowa to karton, jednostka dodatkowa do sztuka. Jeśli w kartonie mamy 10 sztuk produktu, to przelicznik = 10.  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Jeśli chcesz podać EANy dla produktów, pamiętaj, że dany kod może być przypisany tylko do 1 produktu.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Jeśli chcesz przypisz produkt do kategorii, wpisując wartość ze słownika kategorii.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -244,79 +292,79 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">qcadoo MES:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dana opcjonalna. Jeśli chcesz określić producenta produktu użyj numeru klienta zdefiniowanego w qcadoo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">qcadoo MES:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dana opcjolana. Jeśli chcesz przypisać produkt do asortymentu, użyj nazwy asortymentu zdefiniowanego w qcadoo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">qcadoo MES:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dana opcjonalna. Możesz przypisać produkt do rodziny - w tym celu zdefiniuj w qcadoo produkty - rodziny i użyj w pliku importu ich numeru</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Jeśli chcesz określić producenta produktu użyj numeru klienta zdefiniowanego w qcadoo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjolana. Jeśli chcesz przypisać produkt do asortymentu, użyj nazwy asortymentu zdefiniowanego w qcadoo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Możesz przypisać produkt do rodziny - w tym celu zdefiniuj w qcadoo produkty - rodziny i użyj w pliku importu ich numeru.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -364,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -388,75 +436,75 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>qcadoo MES:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Dana opcjonalna.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>qcadoo MES:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Dana opcjonalna. Ważność wyrażana jest w miesiacach. Podana wartość musi być liczbą dodatnią całkowitą.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>qcadoo MES:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Dana opcjonalna.  Dostępne wartości: 'tak' lub 'nie'. Jeśli komórka będzie pusta lub wartość będzie inna niż dostępne, to ewidencja partii nie będzie wymagana.</t>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{FF493189-EE86-DB48-BBD1-C407EC7EAA15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{E2643E46-76DC-BC41-853C-2A72829A86F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Ważność wyrażana jest w miesiacach. Podana wartość musi być liczbą dodatnią całkowitą.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{12BA27A3-B592-B941-BFB3-4A02442816BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna.  Dostępne wartości: 'tak' lub 'nie'. Jeśli komórka będzie pusta lub wartość będzie inna niż dostępne, to ewidencja partii nie będzie wymagana.</t>
         </r>
       </text>
     </comment>
@@ -465,7 +513,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Numer</t>
   </si>
@@ -513,13 +561,19 @@
   </si>
   <si>
     <t>Ewidencja partii</t>
+  </si>
+  <si>
+    <t>Przelicznik</t>
+  </si>
+  <si>
+    <t>jednostka dodatkowa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -545,19 +599,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -591,13 +632,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Norm." xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,7 +662,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -632,7 +672,7 @@
         <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -671,7 +711,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -681,7 +721,7 @@
         <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -720,7 +760,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -730,7 +770,7 @@
         <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,7 +809,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -779,7 +819,7 @@
         <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -818,7 +858,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -828,7 +868,7 @@
         <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -867,7 +907,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -877,7 +917,7 @@
         <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -916,7 +956,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -926,7 +966,7 @@
         <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +1005,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -975,7 +1015,7 @@
         <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1014,7 +1054,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -1024,7 +1064,7 @@
         <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1063,7 +1103,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -1073,7 +1113,7 @@
         <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1112,7 +1152,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -1122,7 +1162,7 @@
         <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1201,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -1171,7 +1211,7 @@
         <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1210,7 +1250,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -1220,7 +1260,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,23 +1590,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="13" width="20.83203125" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+    <col min="3" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="15" width="20.83203125" customWidth="1"/>
+    <col min="16" max="18" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1580,39 +1620,45 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_pl.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09E460C-43AC-CE4E-96B2-72A3460C7C2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9740" windowWidth="33600" windowHeight="9400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9735" windowWidth="33600" windowHeight="9405" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Produkty - import" sheetId="1" r:id="rId1"/>
+    <sheet name="Lista" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5830D5F2-87E2-844B-8797-8AC985758524}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3B4D0B4C-397E-C54A-802C-74C233498F1A}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -412,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{FF493189-EE86-DB48-BBD1-C407EC7EAA15}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{E2643E46-76DC-BC41-853C-2A72829A86F0}">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{12BA27A3-B592-B941-BFB3-4A02442816BD}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -513,7 +510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Numer</t>
   </si>
@@ -524,9 +521,6 @@
     <t>Globalny typ materiału</t>
   </si>
   <si>
-    <t>jednostka podstawowa</t>
-  </si>
-  <si>
     <t>Kod EAN</t>
   </si>
   <si>
@@ -566,23 +560,45 @@
     <t>Przelicznik</t>
   </si>
   <si>
-    <t>jednostka dodatkowa</t>
+    <t>surowiec</t>
+  </si>
+  <si>
+    <t>półprodukt</t>
+  </si>
+  <si>
+    <t>odpad</t>
+  </si>
+  <si>
+    <t>opakowanie</t>
+  </si>
+  <si>
+    <t>tak</t>
+  </si>
+  <si>
+    <t>nie</t>
+  </si>
+  <si>
+    <t>Jednostka podstawowa</t>
+  </si>
+  <si>
+    <t>Jednostka dodatkowa</t>
+  </si>
+  <si>
+    <t>finalny produkt dodatkowy</t>
+  </si>
+  <si>
+    <t>finalny produkt główny</t>
+  </si>
+  <si>
+    <t>T/N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -602,6 +618,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -611,7 +650,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -619,28 +658,81 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1">
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -672,7 +764,7 @@
         <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -721,7 +813,7 @@
         <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -770,7 +862,7 @@
         <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -819,7 +911,7 @@
         <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -868,7 +960,7 @@
         <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +1009,7 @@
         <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -966,7 +1058,7 @@
         <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1015,7 +1107,7 @@
         <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1064,7 +1156,7 @@
         <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1113,7 +1205,7 @@
         <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,7 +1254,7 @@
         <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1303,7 @@
         <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,7 +1352,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,6 +1384,53 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="productImportSchema_pl" displayName="productImportSchema_pl" ref="A1:R2" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:R2"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Numer" dataDxfId="2"/>
+    <tableColumn id="2" name="Nazwa" dataDxfId="1"/>
+    <tableColumn id="3" name="Globalny typ materiału"/>
+    <tableColumn id="4" name="Jednostka podstawowa" dataDxfId="0"/>
+    <tableColumn id="5" name="Jednostka dodatkowa"/>
+    <tableColumn id="6" name="Przelicznik"/>
+    <tableColumn id="7" name="Kod EAN"/>
+    <tableColumn id="8" name="Kategoria"/>
+    <tableColumn id="9" name="Opis"/>
+    <tableColumn id="10" name="Producent"/>
+    <tableColumn id="11" name="Asortyment"/>
+    <tableColumn id="12" name="Należy do rodziny"/>
+    <tableColumn id="13" name="Koszt nominalny"/>
+    <tableColumn id="14" name="Cena ostatniego przychodu"/>
+    <tableColumn id="15" name="Cena średnio ważona"/>
+    <tableColumn id="16" name="Rozmiar"/>
+    <tableColumn id="17" name="Ważność"/>
+    <tableColumn id="18" name="Ewidencja partii"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="globalny_typ_materiału" displayName="globalny_typ_materiału" ref="A1:A7" totalsRowShown="0">
+  <autoFilter ref="A1:A7"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Globalny typ materiału"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="C1:C3" totalsRowShown="0">
+  <autoFilter ref="C1:C3"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="T/N"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1590,82 +1729,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="12" width="16.83203125" customWidth="1"/>
-    <col min="13" max="15" width="20.83203125" customWidth="1"/>
-    <col min="16" max="18" width="16.83203125" customWidth="1"/>
+    <col min="1" max="2" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="2" customWidth="1"/>
+    <col min="6" max="11" width="16.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.875" style="2" customWidth="1"/>
+    <col min="16" max="18" width="16.875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lista!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lista!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>R2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_pl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F412F2-57A1-4A75-813A-0CBC73D298BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9735" windowWidth="33600" windowHeight="9405" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkty - import" sheetId="1" r:id="rId1"/>
@@ -28,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -169,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -313,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -361,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -385,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -433,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -457,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -481,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +511,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Numer</t>
   </si>
@@ -584,19 +585,16 @@
     <t>Jednostka dodatkowa</t>
   </si>
   <si>
-    <t>finalny produkt dodatkowy</t>
-  </si>
-  <si>
-    <t>finalny produkt główny</t>
-  </si>
-  <si>
     <t>T/N</t>
+  </si>
+  <si>
+    <t>finalny produkt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -662,12 +660,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -729,7 +726,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Styl tabeli 1" pivot="0" count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
     </tableStyle>
   </tableStyles>
@@ -764,7 +761,7 @@
         <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -813,7 +810,7 @@
         <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -862,7 +859,7 @@
         <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +908,7 @@
         <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -960,7 +957,7 @@
         <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1009,7 +1006,7 @@
         <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1058,7 +1055,7 @@
         <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1104,7 @@
         <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1156,7 +1153,7 @@
         <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1202,7 @@
         <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,7 +1251,7 @@
         <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1300,7 @@
         <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1349,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,47 +1384,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="productImportSchema_pl" displayName="productImportSchema_pl" ref="A1:R2" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="productImportSchema_pl" displayName="productImportSchema_pl" ref="A1:R2" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:R2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Numer" dataDxfId="2"/>
-    <tableColumn id="2" name="Nazwa" dataDxfId="1"/>
-    <tableColumn id="3" name="Globalny typ materiału"/>
-    <tableColumn id="4" name="Jednostka podstawowa" dataDxfId="0"/>
-    <tableColumn id="5" name="Jednostka dodatkowa"/>
-    <tableColumn id="6" name="Przelicznik"/>
-    <tableColumn id="7" name="Kod EAN"/>
-    <tableColumn id="8" name="Kategoria"/>
-    <tableColumn id="9" name="Opis"/>
-    <tableColumn id="10" name="Producent"/>
-    <tableColumn id="11" name="Asortyment"/>
-    <tableColumn id="12" name="Należy do rodziny"/>
-    <tableColumn id="13" name="Koszt nominalny"/>
-    <tableColumn id="14" name="Cena ostatniego przychodu"/>
-    <tableColumn id="15" name="Cena średnio ważona"/>
-    <tableColumn id="16" name="Rozmiar"/>
-    <tableColumn id="17" name="Ważność"/>
-    <tableColumn id="18" name="Ewidencja partii"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Numer" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nazwa" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Globalny typ materiału"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Jednostka podstawowa" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Jednostka dodatkowa"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Przelicznik"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Kod EAN"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Kategoria"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Opis"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Producent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Asortyment"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Należy do rodziny"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Koszt nominalny"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Cena ostatniego przychodu"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cena średnio ważona"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Rozmiar"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Ważność"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Ewidencja partii"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="globalny_typ_materiału" displayName="globalny_typ_materiału" ref="A1:A7" totalsRowShown="0">
-  <autoFilter ref="A1:A7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="globalny_typ_materiału" displayName="globalny_typ_materiału" ref="A1:A6" totalsRowShown="0">
+  <autoFilter ref="A1:A6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Globalny typ materiału"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Globalny typ materiału"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="C1:C3" totalsRowShown="0">
-  <autoFilter ref="C1:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tak_nie" displayName="tak_nie" ref="C1:C3" totalsRowShown="0">
+  <autoFilter ref="C1:C3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="T/N"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="T/N"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1729,7 +1726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1741,36 +1738,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.375" style="2" customWidth="1"/>
-    <col min="6" max="11" width="16.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.875" style="2" customWidth="1"/>
-    <col min="16" max="18" width="16.875" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="2"/>
+    <col min="1" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="20.875" customWidth="1"/>
+    <col min="14" max="14" width="26" customWidth="1"/>
+    <col min="15" max="15" width="20.875" customWidth="1"/>
+    <col min="16" max="18" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1788,7 +1784,7 @@
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1800,7 +1796,7 @@
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -1811,9 +1807,9 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1826,17 +1822,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lista!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Lista!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>R2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Lista!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1845,15 +1841,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1865,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1891,16 +1885,11 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>19</v>
       </c>
     </row>

--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_pl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F412F2-57A1-4A75-813A-0CBC73D298BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBEFD9E-9B24-48A2-85B5-37C1B674505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,19 @@
     <sheet name="Produkty - import" sheetId="1" r:id="rId1"/>
     <sheet name="Lista" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -78,7 +89,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Pole wymagane</t>
+          <t>Pole wymagane.</t>
         </r>
       </text>
     </comment>
@@ -102,47 +113,13 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Jeśli chcesz przypisz produkt do jednego z możliwych typów:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- surowiec,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- półprodukt,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- finalny produkt,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>- odpad.</t>
+          <t>Dana opcjonalna. Jeśli chcesz przypisz produkt do jednego 
+z możliwych typów:
+- surowiec,
+- półprodukt,
+- finalny produkt,
+- odpad,
+- opakowanie.</t>
         </r>
       </text>
     </comment>
@@ -238,7 +215,19 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Dana opcjonalna. Jeśli chcesz podać EANy dla produktów, pamiętaj, że dany kod może być przypisany tylko do 1 produktu.</t>
+          <t xml:space="preserve">Dana opcjonalna. Jeśli chcesz podać EANy dla produktów, pamiętaj, że dany kod może być przypisany tylko do 1 produktu 
+- chyba że jest zaznaczony parametr </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Wiele artykułów z tym samym kodem EAN.</t>
         </r>
       </text>
     </comment>
@@ -262,7 +251,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Dana opcjonalna. Jeśli chcesz przypisz produkt do kategorii, wpisując wartość ze słownika kategorii.</t>
+          <t>Dana opcjonalna. Jeśli chcesz, przypisz produkt do kategorii, wpisując wartość ze słownika kategorii.</t>
         </r>
       </text>
     </comment>
@@ -310,7 +299,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Dana opcjonalna. Jeśli chcesz określić producenta produktu użyj numeru klienta zdefiniowanego w qcadoo.</t>
+          <t>Dana opcjonalna. Jeśli chcesz określić producenta produktu, użyj numeru firmy zdefiniowanej w qcadoo.</t>
         </r>
       </text>
     </comment>
@@ -358,7 +347,8 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Dana opcjonalna. Możesz przypisać produkt do rodziny - w tym celu zdefiniuj w qcadoo produkty - rodziny i użyj w pliku importu ich numeru.</t>
+          <t>Dana opcjonalna. Możesz przypisać produkt do rodziny
+ - w tym celu zdefiniuj w qcadoo produkty - rodziny i użyj w pliku importu ich numeru.</t>
         </r>
       </text>
     </comment>
@@ -382,7 +372,8 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
+          <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc 
+po przecinku to 5.</t>
         </r>
       </text>
     </comment>
@@ -406,7 +397,8 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
+          <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc 
+po przecinku to 5.</t>
         </r>
       </text>
     </comment>
@@ -430,7 +422,8 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
+          <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc 
+po przecinku to 5.</t>
         </r>
       </text>
     </comment>
@@ -502,7 +495,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Dana opcjonalna.  Dostępne wartości: 'tak' lub 'nie'. Jeśli komórka będzie pusta lub wartość będzie inna niż dostępne, to ewidencja partii nie będzie wymagana.</t>
+          <t>Dana opcjonalna.  Dostępne wartości: 'tak' lub 'nie'. Jeśli komórka będzie pusta, to ewidencja partii nie będzie wymagana.</t>
         </r>
       </text>
     </comment>
@@ -595,7 +588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -634,6 +627,14 @@
     <font>
       <i/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1813,11 +1814,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
